--- a/MA-population.xlsx
+++ b/MA-population.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian/github/massachusetts-covid19-report-archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF481D0D-B9EE-7C4E-BB94-37AAF17CE3ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8610C6F-0559-D94C-A020-DC25E241DDAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1240" yWindow="960" windowWidth="27180" windowHeight="16540" xr2:uid="{FBEDA5C2-41F9-7440-B546-18B06724DC2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -491,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94F9908-F396-9440-9D59-257E77243345}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F26"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,7 +545,7 @@
         <v>178826</v>
       </c>
       <c r="E4" s="1">
-        <f>B4+D4</f>
+        <f t="shared" ref="E4:E26" si="0">B4+D4</f>
         <v>365746</v>
       </c>
     </row>
@@ -563,7 +563,7 @@
         <v>188812</v>
       </c>
       <c r="E5" s="1">
-        <f>B5+D5</f>
+        <f t="shared" si="0"/>
         <v>384923</v>
       </c>
     </row>
@@ -581,7 +581,7 @@
         <v>197667</v>
       </c>
       <c r="E6" s="1">
-        <f>B6+D6</f>
+        <f t="shared" si="0"/>
         <v>404190</v>
       </c>
     </row>
@@ -599,7 +599,7 @@
         <v>125519</v>
       </c>
       <c r="E7" s="1">
-        <f>B7+D7</f>
+        <f t="shared" si="0"/>
         <v>257329</v>
       </c>
     </row>
@@ -617,7 +617,7 @@
         <v>64764</v>
       </c>
       <c r="E8" s="1">
-        <f>B8+D8</f>
+        <f t="shared" si="0"/>
         <v>137471</v>
       </c>
       <c r="F8">
@@ -639,7 +639,7 @@
         <v>33522</v>
       </c>
       <c r="E9" s="1">
-        <f>B9+D9</f>
+        <f t="shared" si="0"/>
         <v>69522</v>
       </c>
     </row>
@@ -657,7 +657,7 @@
         <v>36177</v>
       </c>
       <c r="E10" s="1">
-        <f>B10+D10</f>
+        <f t="shared" si="0"/>
         <v>73739</v>
       </c>
     </row>
@@ -675,7 +675,7 @@
         <v>131335</v>
       </c>
       <c r="E11" s="1">
-        <f>B11+D11</f>
+        <f t="shared" si="0"/>
         <v>257468</v>
       </c>
     </row>
@@ -693,7 +693,7 @@
         <v>220345</v>
       </c>
       <c r="E12" s="1">
-        <f>B12+D12</f>
+        <f t="shared" si="0"/>
         <v>430899</v>
       </c>
       <c r="F12">
@@ -715,7 +715,7 @@
         <v>203805</v>
       </c>
       <c r="E13" s="1">
-        <f>B13+D13</f>
+        <f t="shared" si="0"/>
         <v>396671</v>
       </c>
     </row>
@@ -733,7 +733,7 @@
         <v>213341</v>
       </c>
       <c r="E14" s="1">
-        <f>B14+D14</f>
+        <f t="shared" si="0"/>
         <v>412721</v>
       </c>
       <c r="F14">
@@ -755,7 +755,7 @@
         <v>239154</v>
       </c>
       <c r="E15" s="1">
-        <f>B15+D15</f>
+        <f t="shared" si="0"/>
         <v>463372</v>
       </c>
     </row>
@@ -773,7 +773,7 @@
         <v>262119</v>
       </c>
       <c r="E16" s="1">
-        <f>B16+D16</f>
+        <f t="shared" si="0"/>
         <v>508732</v>
       </c>
       <c r="F16">
@@ -781,7 +781,7 @@
         <v>972104</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
@@ -795,11 +795,11 @@
         <v>253946</v>
       </c>
       <c r="E17" s="1">
-        <f>B17+D17</f>
+        <f t="shared" si="0"/>
         <v>491134</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -813,7 +813,7 @@
         <v>222931</v>
       </c>
       <c r="E18" s="1">
-        <f>B18+D18</f>
+        <f t="shared" si="0"/>
         <v>427986</v>
       </c>
       <c r="F18">
@@ -821,7 +821,7 @@
         <v>919120</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
@@ -835,11 +835,11 @@
         <v>81249</v>
       </c>
       <c r="E19" s="1">
-        <f>B19+D19</f>
+        <f t="shared" si="0"/>
         <v>154807</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>6</v>
       </c>
@@ -853,11 +853,11 @@
         <v>111535</v>
       </c>
       <c r="E20" s="1">
-        <f>B20+D20</f>
+        <f t="shared" si="0"/>
         <v>211644</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>5</v>
       </c>
@@ -871,11 +871,11 @@
         <v>60304</v>
       </c>
       <c r="E21" s="1">
-        <f>B21+D21</f>
+        <f t="shared" si="0"/>
         <v>113335</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>4</v>
       </c>
@@ -889,7 +889,7 @@
         <v>79482</v>
       </c>
       <c r="E22" s="1">
-        <f>B22+D22</f>
+        <f t="shared" si="0"/>
         <v>147711</v>
       </c>
       <c r="F22">
@@ -897,7 +897,7 @@
         <v>627497</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -911,11 +911,11 @@
         <v>104250</v>
       </c>
       <c r="E23" s="1">
-        <f>B23+D23</f>
+        <f t="shared" si="0"/>
         <v>188407</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>2</v>
       </c>
@@ -929,11 +929,15 @@
         <v>90577</v>
       </c>
       <c r="E24" s="1">
-        <f>B24+D24</f>
+        <f t="shared" si="0"/>
         <v>157446</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="G24" s="1">
+        <f>SUM(E23:E24)</f>
+        <v>345853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
@@ -947,11 +951,11 @@
         <v>79267</v>
       </c>
       <c r="E25" s="1">
-        <f>B25+D25</f>
+        <f t="shared" si="0"/>
         <v>130384</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
@@ -965,15 +969,19 @@
         <v>82481</v>
       </c>
       <c r="E26" s="1">
-        <f>B26+D26</f>
+        <f t="shared" si="0"/>
         <v>123110</v>
       </c>
       <c r="F26">
         <f>SUM(E23:E26)</f>
         <v>599347</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="1">
+        <f>SUM(E25:E26)</f>
+        <v>253494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E27" s="1"/>
       <c r="F27" s="1">
         <f>SUM(F8:F26)</f>

--- a/MA-population.xlsx
+++ b/MA-population.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brian/github/massachusetts-covid19-report-archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8610C6F-0559-D94C-A020-DC25E241DDAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F94261-6E59-0940-A0F1-728E2E9A1047}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1240" yWindow="960" windowWidth="27180" windowHeight="16540" xr2:uid="{FBEDA5C2-41F9-7440-B546-18B06724DC2C}"/>
+    <workbookView xWindow="1220" yWindow="960" windowWidth="27180" windowHeight="16540" xr2:uid="{FBEDA5C2-41F9-7440-B546-18B06724DC2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -147,6 +150,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -165,20 +175,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,441 +505,444 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="4"/>
+    <col min="7" max="7" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="6"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>6308747</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="23" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>3047339</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>3261408</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="5">
         <v>186920</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>178826</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="4">
         <f t="shared" ref="E4:E26" si="0">B4+D4</f>
         <v>365746</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <v>196111</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>188812</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>384923</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="5">
         <v>206523</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="5">
         <v>197667</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>404190</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <v>131810</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="5">
         <v>125519</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>257329</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <v>72707</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="5">
         <v>64764</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
         <v>137471</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <f>SUM(E4:E8)</f>
         <v>1549659</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <v>36000</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>33522</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>69522</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="5">
         <v>37562</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="5">
         <v>36177</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>73739</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="5">
         <v>126133</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="5">
         <v>131335</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>257468</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="5">
         <v>210554</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>220345</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="4">
         <f t="shared" si="0"/>
         <v>430899</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="4">
         <f>SUM(E9:E12)</f>
         <v>831628</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="5">
         <v>192866</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="5">
         <v>203805</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>396671</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <v>199380</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="5">
         <v>213341</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="4">
         <f t="shared" si="0"/>
         <v>412721</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <f>SUM(E13:E14)</f>
         <v>809392</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <v>224218</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="5">
         <v>239154</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="4">
         <f t="shared" si="0"/>
         <v>463372</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <v>246613</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="5">
         <v>262119</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="4">
         <f t="shared" si="0"/>
         <v>508732</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <f>SUM(E15:E16)</f>
         <v>972104</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="5">
         <v>237188</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="5">
         <v>253946</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="4">
         <f t="shared" si="0"/>
         <v>491134</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="5">
         <v>205055</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="5">
         <v>222931</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="4">
         <f t="shared" si="0"/>
         <v>427986</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <f>SUM(E17:E18)</f>
         <v>919120</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="5">
         <v>73558</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="5">
         <v>81249</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="4">
         <f t="shared" si="0"/>
         <v>154807</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="5">
         <v>100109</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="5">
         <v>111535</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="4">
         <f t="shared" si="0"/>
         <v>211644</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="5">
         <v>53031</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="5">
         <v>60304</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="4">
         <f t="shared" si="0"/>
         <v>113335</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="5">
         <v>68229</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="5">
         <v>79482</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="4">
         <f t="shared" si="0"/>
         <v>147711</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <f>SUM(E19:E22)</f>
         <v>627497</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="5">
         <v>84157</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="5">
         <v>104250</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="4">
         <f t="shared" si="0"/>
         <v>188407</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="5">
         <v>66869</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="5">
         <v>90577</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="4">
         <f t="shared" si="0"/>
         <v>157446</v>
       </c>
@@ -938,41 +952,41 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="5">
         <v>51117</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="5">
         <v>79267</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="4">
         <f t="shared" si="0"/>
         <v>130384</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="5">
         <v>40629</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26" s="5">
         <v>82481</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="4">
         <f t="shared" si="0"/>
         <v>123110</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="4">
         <f>SUM(E23:E26)</f>
         <v>599347</v>
       </c>
@@ -982,8 +996,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E27" s="1"/>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <f>SUM(F8:F26)</f>
         <v>6308747</v>
       </c>
